--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_ZA.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_ZA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E567EB87-93CC-4B43-83F4-2320BA533A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CF6964-12D9-4220-AB1F-F978075E80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,11 +652,14 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="11.109375" customWidth="1"/>
+    <col min="1" max="11" width="11.109375" customWidth="1"/>
+    <col min="13" max="30" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,10 +691,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,11 +719,11 @@
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
         <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,7 +748,7 @@
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -771,7 +774,7 @@
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>2</v>
       </c>
     </row>
@@ -797,7 +800,7 @@
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -823,11 +826,11 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
         <v>2</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -852,7 +855,7 @@
       <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -878,11 +881,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
         <v>3</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,7 +936,7 @@
       <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>3</v>
       </c>
     </row>
@@ -960,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>2</v>
       </c>
     </row>
@@ -987,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1016,7 +1019,7 @@
       <c r="H13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1045,7 +1048,7 @@
       <c r="H14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1074,7 +1077,7 @@
       <c r="H15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1103,7 +1106,7 @@
       <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1129,7 +1132,7 @@
       <c r="G17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1155,7 +1158,7 @@
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1181,7 +1184,7 @@
       <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1207,11 +1210,11 @@
       <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="2">
         <v>3</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,11 +1239,11 @@
       <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2">
         <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,11 +1268,11 @@
       <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2">
         <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,11 +1297,11 @@
       <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="2">
         <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,10 +1329,10 @@
       <c r="H24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
         <v>3</v>
       </c>
-      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1353,7 +1356,7 @@
       <c r="G25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1379,7 +1382,7 @@
       <c r="G26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1408,7 +1411,7 @@
       <c r="H27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -1437,7 +1440,7 @@
       <c r="H28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1466,7 +1469,7 @@
       <c r="H29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1495,7 +1498,7 @@
       <c r="H30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -1548,7 +1551,7 @@
       <c r="G32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1574,11 +1577,11 @@
       <c r="G33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="2">
         <v>2</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,10 +1606,10 @@
       <c r="G34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
         <v>4.5</v>
       </c>
-      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1630,7 +1633,7 @@
       <c r="G35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1656,7 +1659,7 @@
       <c r="G36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -1682,7 +1685,7 @@
       <c r="G37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1706,11 +1709,11 @@
         <v>16</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="J38" s="2">
+      <c r="J38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="2">
         <v>1</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,7 +1738,7 @@
       <c r="G39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1764,7 +1767,7 @@
       <c r="H40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1790,11 +1793,11 @@
       <c r="G41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="2">
         <v>1</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,11 +1822,11 @@
       <c r="G42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="2">
         <v>2</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,10 +1851,10 @@
       <c r="G43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
         <v>1</v>
       </c>
-      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1875,10 +1878,10 @@
       <c r="G44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
         <v>0.5</v>
       </c>
-      <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1902,7 +1905,7 @@
       <c r="G45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1928,7 +1931,7 @@
       <c r="G46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1954,7 +1957,7 @@
       <c r="G47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1980,7 +1983,7 @@
       <c r="G48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2006,7 +2009,7 @@
       <c r="G49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2032,7 +2035,7 @@
       <c r="G50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2058,11 +2061,11 @@
       <c r="G51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="2">
         <v>2</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2090,10 +2093,10 @@
       <c r="H52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
         <v>2.5</v>
       </c>
-      <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -2118,10 +2121,10 @@
         <v>17</v>
       </c>
       <c r="H53" s="2"/>
-      <c r="J53" s="2">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
         <v>1.5</v>
       </c>
-      <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -2170,10 +2173,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="2"/>
-      <c r="J55" s="2">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
         <v>1.5</v>
       </c>
-      <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -2197,7 +2200,7 @@
       <c r="G56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2221,7 +2224,7 @@
         <v>16</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -2245,7 +2248,7 @@
       <c r="G58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -2271,7 +2274,7 @@
       <c r="G59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2297,7 +2300,7 @@
       <c r="G60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2323,7 +2326,7 @@
       <c r="G61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2349,7 +2352,7 @@
       <c r="G62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2378,7 +2381,7 @@
       <c r="H63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>8</v>
       </c>
     </row>
@@ -2404,7 +2407,7 @@
       <c r="G64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2430,7 +2433,7 @@
       <c r="G65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2456,7 +2459,7 @@
       <c r="G66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2482,11 +2485,11 @@
       <c r="G67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" s="2">
         <v>3</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,10 +2514,10 @@
       <c r="G68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="2"/>
+      <c r="K68" s="2">
         <v>2.5</v>
       </c>
-      <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2541,10 +2544,10 @@
       <c r="H69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
         <v>1.5</v>
       </c>
-      <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -2571,10 +2574,10 @@
       <c r="H70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="2"/>
+      <c r="K70" s="2">
         <v>1</v>
       </c>
-      <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -2598,7 +2601,7 @@
       <c r="G71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2624,7 +2627,7 @@
       <c r="G72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2650,11 +2653,11 @@
       <c r="G73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" s="2">
         <v>3</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2682,7 +2685,7 @@
       <c r="H74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2708,7 +2711,7 @@
       <c r="G75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2737,7 +2740,7 @@
       <c r="H76" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2763,11 +2766,11 @@
       <c r="G77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" s="2">
         <v>2</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2792,10 +2795,10 @@
       <c r="G78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="2"/>
+      <c r="K78" s="2">
         <v>1</v>
       </c>
-      <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -2819,7 +2822,7 @@
       <c r="G79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2845,7 +2848,7 @@
       <c r="G80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2871,7 +2874,7 @@
       <c r="G81" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K81" s="2">
         <v>3.5</v>
       </c>
     </row>
@@ -2897,7 +2900,7 @@
       <c r="G82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J82" s="2">
+      <c r="K82" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2923,7 +2926,7 @@
       <c r="G83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="2">
+      <c r="K83" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2949,7 +2952,7 @@
       <c r="G84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="2">
+      <c r="K84" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2978,7 +2981,7 @@
       <c r="H85" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J85" s="2">
+      <c r="K85" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3004,7 +3007,7 @@
       <c r="G86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="2">
+      <c r="K86" s="2">
         <v>7</v>
       </c>
     </row>
@@ -3033,11 +3036,11 @@
       <c r="H87" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="2">
         <v>5</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3062,7 +3065,7 @@
       <c r="G88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="2">
+      <c r="K88" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3088,7 +3091,7 @@
       <c r="G89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="2">
+      <c r="K89" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3114,7 +3117,7 @@
       <c r="G90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J90" s="2">
+      <c r="K90" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3140,7 +3143,7 @@
       <c r="G91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="2">
+      <c r="K91" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3166,7 +3169,7 @@
       <c r="G92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="2">
+      <c r="K92" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_ZA.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_ZA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CF6964-12D9-4220-AB1F-F978075E80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD69BA81-47E1-4640-9349-7E509052A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>SPECIES</t>
   </si>
   <si>
-    <t>SIZE</t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
@@ -348,13 +345,16 @@
   </si>
   <si>
     <t>P5186082</t>
+  </si>
+  <si>
+    <t>SIZE (cm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -383,6 +383,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -424,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,6 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +660,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -675,52 +682,52 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -728,25 +735,25 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -754,25 +761,25 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="2">
         <v>2</v>
@@ -780,25 +787,25 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="2">
         <v>2</v>
@@ -806,28 +813,28 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
@@ -835,25 +842,25 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -861,28 +868,28 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2">
         <v>3</v>
@@ -890,22 +897,22 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3"/>
       <c r="J9" s="2"/>
@@ -913,28 +920,28 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="K10" s="2">
         <v>3</v>
@@ -942,25 +949,25 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="5"/>
       <c r="K11" s="2">
@@ -969,25 +976,25 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5"/>
       <c r="K12" s="2">
@@ -996,28 +1003,28 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
@@ -1025,28 +1032,28 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2">
         <v>6</v>
@@ -1054,28 +1061,28 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2">
         <v>4</v>
@@ -1083,28 +1090,28 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="2">
         <v>4</v>
@@ -1112,25 +1119,25 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="2">
         <v>3</v>
@@ -1138,25 +1145,25 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="2">
         <v>4</v>
@@ -1164,25 +1171,25 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="2">
         <v>4</v>
@@ -1190,28 +1197,28 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K20" s="2">
         <v>3</v>
@@ -1219,28 +1226,28 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -1248,28 +1255,28 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -1277,28 +1284,28 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -1306,28 +1313,28 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
@@ -1336,25 +1343,25 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" s="2">
         <v>2</v>
@@ -1362,54 +1369,54 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27" s="2">
         <v>1.5</v>
@@ -1417,57 +1424,57 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -1475,28 +1482,28 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -1504,25 +1511,25 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2"/>
       <c r="K31" s="2">
@@ -1531,25 +1538,25 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="2">
         <v>14</v>
@@ -1557,28 +1564,28 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K33" s="2">
         <v>2</v>
@@ -1586,25 +1593,25 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
@@ -1613,51 +1620,51 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36" s="2">
         <v>1.5</v>
@@ -1665,25 +1672,25 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="2">
         <v>2</v>
@@ -1691,26 +1698,26 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="3"/>
       <c r="J38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -1718,25 +1725,25 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" s="2">
         <v>3</v>
@@ -1744,28 +1751,28 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40" s="2">
         <v>3</v>
@@ -1773,28 +1780,28 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
@@ -1802,28 +1809,28 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K42" s="2">
         <v>2</v>
@@ -1831,25 +1838,25 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
@@ -1858,25 +1865,25 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2">
@@ -1885,25 +1892,25 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" s="2">
         <v>4</v>
@@ -1911,25 +1918,25 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="2">
         <v>3</v>
@@ -1937,25 +1944,25 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K47" s="2">
         <v>2</v>
@@ -1963,25 +1970,25 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" s="2">
         <v>3</v>
@@ -1989,25 +1996,25 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>
@@ -2015,25 +2022,25 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K50" s="2">
         <v>4</v>
@@ -2041,28 +2048,28 @@
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K51" s="2">
         <v>2</v>
@@ -2070,28 +2077,28 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2">
@@ -2100,25 +2107,25 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="2"/>
       <c r="J53" s="2"/>
@@ -2128,22 +2135,22 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="2"/>
@@ -2152,25 +2159,25 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55" s="2"/>
       <c r="J55" s="2"/>
@@ -2180,25 +2187,25 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" s="2">
         <v>3</v>
@@ -2206,47 +2213,47 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" s="3"/>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" s="2">
         <v>1.5</v>
@@ -2254,25 +2261,25 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" s="2">
         <v>3</v>
@@ -2280,25 +2287,25 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K60" s="2">
         <v>3</v>
@@ -2306,25 +2313,25 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K61" s="2">
         <v>3</v>
@@ -2332,25 +2339,25 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K62" s="2">
         <v>2</v>
@@ -2358,28 +2365,28 @@
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63" s="2">
         <v>8</v>
@@ -2387,25 +2394,25 @@
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K64" s="2">
         <v>3</v>
@@ -2413,25 +2420,25 @@
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K65" s="2">
         <v>2</v>
@@ -2439,25 +2446,25 @@
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K66" s="2">
         <v>2</v>
@@ -2465,28 +2472,28 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K67" s="2">
         <v>3</v>
@@ -2494,25 +2501,25 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
@@ -2521,28 +2528,28 @@
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2">
@@ -2551,28 +2558,28 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
@@ -2581,25 +2588,25 @@
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K71" s="2">
         <v>4</v>
@@ -2607,25 +2614,25 @@
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72" s="2">
         <v>2</v>
@@ -2633,28 +2640,28 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K73" s="2">
         <v>3</v>
@@ -2662,28 +2669,28 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K74" s="2">
         <v>2</v>
@@ -2691,25 +2698,25 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
@@ -2717,28 +2724,28 @@
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K76" s="2">
         <v>3</v>
@@ -2746,28 +2753,28 @@
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K77" s="2">
         <v>2</v>
@@ -2775,25 +2782,25 @@
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
@@ -2802,25 +2809,25 @@
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K79" s="2">
         <v>3</v>
@@ -2828,25 +2835,25 @@
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K80" s="2">
         <v>4</v>
@@ -2854,25 +2861,25 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K81" s="2">
         <v>3.5</v>
@@ -2880,25 +2887,25 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K82" s="2">
         <v>4</v>
@@ -2906,25 +2913,25 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K83" s="2">
         <v>2</v>
@@ -2932,25 +2939,25 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K84" s="2">
         <v>4</v>
@@ -2958,28 +2965,28 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K85" s="2">
         <v>3</v>
@@ -2987,25 +2994,25 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K86" s="2">
         <v>7</v>
@@ -3013,31 +3020,31 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="K87" s="2">
         <v>5</v>
@@ -3045,25 +3052,25 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K88" s="2">
         <v>3</v>
@@ -3071,25 +3078,25 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K89" s="2">
         <v>2</v>
@@ -3097,25 +3104,25 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K90" s="2">
         <v>2</v>
@@ -3123,25 +3130,25 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K91" s="2">
         <v>2</v>
@@ -3149,25 +3156,25 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K92" s="2">
         <v>2</v>
